--- a/REGULAR/OJT/HERNANDEZ, LEONCIO JR.xlsx
+++ b/REGULAR/OJT/HERNANDEZ, LEONCIO JR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3462F949-4A71-4F23-98C4-FBE7F377BA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C552F89B-1120-40D7-9F2D-C2D421FF358B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>PERIOD</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>CEO</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -581,11 +590,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -593,23 +611,14 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,247 +631,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1242,6 +1010,247 @@
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -2841,25 +2850,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1F2CF13C-5C0B-4093-8E0F-1EDF2B6364C2}" name="Table15" displayName="Table15" ref="A8:K221" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1F2CF13C-5C0B-4093-8E0F-1EDF2B6364C2}" name="Table15" displayName="Table15" ref="A8:K222" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{76628698-00C0-47FB-9020-1C70179167C5}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{4947FB0A-1F4D-4EE1-B99A-0DB69304EE85}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{6C44BF2C-F798-4E03-A021-62FBC1C1157D}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E989B489-2F22-46BD-9169-21778573ED59}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{41BBB8A8-81AC-42E6-85C0-4A8CB8D0CE08}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{76628698-00C0-47FB-9020-1C70179167C5}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{4947FB0A-1F4D-4EE1-B99A-0DB69304EE85}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{6C44BF2C-F798-4E03-A021-62FBC1C1157D}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{E989B489-2F22-46BD-9169-21778573ED59}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{41BBB8A8-81AC-42E6-85C0-4A8CB8D0CE08}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{EC90040B-0527-4476-B30E-C66454501053}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{D872AC03-D626-4E67-9852-EC2BCF60E165}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{EC90040B-0527-4476-B30E-C66454501053}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{D872AC03-D626-4E67-9852-EC2BCF60E165}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3CA68997-382A-4A1A-8DE6-1975E7D1EF09}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{48492CBD-0B9D-42D3-A94B-CED721B50653}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{3CA68997-382A-4A1A-8DE6-1975E7D1EF09}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{48492CBD-0B9D-42D3-A94B-CED721B50653}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B493C03F-9731-44FA-ABD3-3C85FF09E31A}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{67790CE0-7890-485C-AAA6-3E84C4608F44}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{B493C03F-9731-44FA-ABD3-3C85FF09E31A}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{67790CE0-7890-485C-AAA6-3E84C4608F44}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2871,25 +2880,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K23" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K23" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2901,13 +2910,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2916,14 +2925,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2974,7 +2983,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3026,7 +3035,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3249,12 +3258,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K221"/>
+  <dimension ref="A2:K222"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="1728" topLeftCell="A25" activePane="bottomLeft"/>
-      <selection activeCell="K16" sqref="K16"/>
-      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="3168" topLeftCell="A73" activePane="bottomLeft"/>
+      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3276,62 +3285,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59">
-        <v>42948</v>
-      </c>
-      <c r="G3" s="56"/>
+      <c r="F3" s="57">
+        <v>43313</v>
+      </c>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3357,18 +3366,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3415,7 +3424,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3425,7 +3434,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>90</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4907,13 +4916,15 @@
         <v>45169</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4925,13 +4936,15 @@
         <v>45199</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4943,13 +4956,15 @@
         <v>45230</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4961,13 +4976,15 @@
         <v>45260</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -4978,14 +4995,20 @@
       <c r="A87" s="40">
         <v>45291</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
+      <c r="B87" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D87" s="39">
+        <v>5</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -4993,8 +5016,8 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40">
-        <v>45322</v>
+      <c r="A88" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5012,7 +5035,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5030,7 +5053,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5048,7 +5071,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5066,7 +5089,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5084,7 +5107,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5102,7 +5125,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5120,7 +5143,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5138,7 +5161,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5156,7 +5179,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5174,7 +5197,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5192,7 +5215,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5210,7 +5233,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5228,7 +5251,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5246,7 +5269,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5264,7 +5287,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5282,7 +5305,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5300,7 +5323,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5318,7 +5341,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5336,7 +5359,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5354,7 +5377,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5372,7 +5395,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5390,7 +5413,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5408,7 +5431,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5426,7 +5449,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5444,7 +5467,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5462,7 +5485,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5480,7 +5503,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5498,7 +5521,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5516,7 +5539,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5534,7 +5557,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5552,7 +5575,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5570,7 +5593,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5588,7 +5611,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5606,7 +5629,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5624,7 +5647,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5642,7 +5665,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5660,7 +5683,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46446</v>
+        <v>46418</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5678,7 +5701,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46477</v>
+        <v>46446</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5696,7 +5719,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46507</v>
+        <v>46477</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5714,7 +5737,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5732,7 +5755,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>46568</v>
+        <v>46538</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5750,7 +5773,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>46599</v>
+        <v>46568</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5768,7 +5791,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>46630</v>
+        <v>46599</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5786,7 +5809,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>46660</v>
+        <v>46630</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5804,7 +5827,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>46691</v>
+        <v>46660</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5822,7 +5845,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>46721</v>
+        <v>46691</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5840,7 +5863,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>46752</v>
+        <v>46721</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5858,7 +5881,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>46783</v>
+        <v>46752</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5876,7 +5899,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>46812</v>
+        <v>46783</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5894,7 +5917,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>46843</v>
+        <v>46812</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5912,7 +5935,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>46873</v>
+        <v>46843</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5930,7 +5953,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>46904</v>
+        <v>46873</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5948,7 +5971,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <v>46934</v>
+        <v>46904</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5966,7 +5989,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <v>46965</v>
+        <v>46934</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5984,7 +6007,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <v>46996</v>
+        <v>46965</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -6002,7 +6025,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <v>47026</v>
+        <v>46996</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -6020,7 +6043,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
-        <v>47057</v>
+        <v>47026</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -6038,7 +6061,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <v>47087</v>
+        <v>47057</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -6056,7 +6079,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <v>47118</v>
+        <v>47087</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -6074,7 +6097,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <v>47149</v>
+        <v>47118</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -6092,7 +6115,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <v>47177</v>
+        <v>47149</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -6110,7 +6133,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <v>47208</v>
+        <v>47177</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -6128,7 +6151,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <v>47238</v>
+        <v>47208</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -6146,7 +6169,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <v>47269</v>
+        <v>47238</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6164,7 +6187,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <v>47299</v>
+        <v>47269</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -6182,7 +6205,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <v>47330</v>
+        <v>47299</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -6200,7 +6223,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <v>47361</v>
+        <v>47330</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6218,7 +6241,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
-        <v>47391</v>
+        <v>47361</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -6236,7 +6259,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
-        <v>47422</v>
+        <v>47391</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6254,7 +6277,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <v>47452</v>
+        <v>47422</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -6272,7 +6295,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
-        <v>47483</v>
+        <v>47452</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6290,7 +6313,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
-        <v>47514</v>
+        <v>47483</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6308,7 +6331,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
-        <v>47542</v>
+        <v>47514</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6326,7 +6349,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <v>47573</v>
+        <v>47542</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6344,7 +6367,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
-        <v>47603</v>
+        <v>47573</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6362,7 +6385,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
-        <v>47634</v>
+        <v>47603</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6380,7 +6403,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
-        <v>47664</v>
+        <v>47634</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6398,7 +6421,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
-        <v>47695</v>
+        <v>47664</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6416,7 +6439,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
-        <v>47726</v>
+        <v>47695</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6434,7 +6457,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <v>47756</v>
+        <v>47726</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6452,7 +6475,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <v>47787</v>
+        <v>47756</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6470,7 +6493,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
-        <v>47817</v>
+        <v>47787</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6488,7 +6511,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
-        <v>47848</v>
+        <v>47817</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6506,7 +6529,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
-        <v>47879</v>
+        <v>47848</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6524,7 +6547,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
-        <v>47907</v>
+        <v>47879</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6542,7 +6565,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <v>47938</v>
+        <v>47907</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6560,7 +6583,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
-        <v>47968</v>
+        <v>47938</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6578,7 +6601,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
-        <v>47999</v>
+        <v>47968</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6596,7 +6619,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
-        <v>48029</v>
+        <v>47999</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6614,7 +6637,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
-        <v>48060</v>
+        <v>48029</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6632,7 +6655,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <v>48091</v>
+        <v>48060</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6650,7 +6673,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <v>48121</v>
+        <v>48091</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -6668,7 +6691,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <v>48152</v>
+        <v>48121</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6686,7 +6709,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <v>48182</v>
+        <v>48152</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -6704,7 +6727,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
-        <v>48213</v>
+        <v>48182</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -6722,7 +6745,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
-        <v>48244</v>
+        <v>48213</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -6740,7 +6763,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
-        <v>48273</v>
+        <v>48244</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -6758,7 +6781,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <v>48304</v>
+        <v>48273</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -6776,7 +6799,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
-        <v>48334</v>
+        <v>48304</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -6794,7 +6817,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
-        <v>48365</v>
+        <v>48334</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -6812,7 +6835,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
-        <v>48395</v>
+        <v>48365</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -6830,7 +6853,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
-        <v>48426</v>
+        <v>48395</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -6848,7 +6871,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
-        <v>48457</v>
+        <v>48426</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -6866,7 +6889,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
-        <v>48487</v>
+        <v>48457</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -6884,7 +6907,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
-        <v>48518</v>
+        <v>48487</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -6902,7 +6925,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
-        <v>48548</v>
+        <v>48518</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -6920,7 +6943,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
-        <v>48579</v>
+        <v>48548</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -6938,7 +6961,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
-        <v>48610</v>
+        <v>48579</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -6956,7 +6979,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
-        <v>48638</v>
+        <v>48610</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -6974,7 +6997,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
-        <v>48669</v>
+        <v>48638</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -6992,7 +7015,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
-        <v>48699</v>
+        <v>48669</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -7010,7 +7033,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
-        <v>48730</v>
+        <v>48699</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -7028,7 +7051,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
-        <v>48760</v>
+        <v>48730</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -7046,7 +7069,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
-        <v>48791</v>
+        <v>48760</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -7064,7 +7087,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
-        <v>48822</v>
+        <v>48791</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -7082,7 +7105,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
-        <v>48852</v>
+        <v>48822</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -7100,7 +7123,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
-        <v>48883</v>
+        <v>48852</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -7118,7 +7141,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
-        <v>48913</v>
+        <v>48883</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -7136,7 +7159,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
-        <v>48944</v>
+        <v>48913</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -7154,7 +7177,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
-        <v>48975</v>
+        <v>48944</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -7172,7 +7195,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
-        <v>49003</v>
+        <v>48975</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -7190,7 +7213,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
-        <v>49034</v>
+        <v>49003</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -7208,7 +7231,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
-        <v>49064</v>
+        <v>49034</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -7226,7 +7249,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
-        <v>49095</v>
+        <v>49064</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -7244,7 +7267,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
-        <v>49125</v>
+        <v>49095</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7262,7 +7285,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
-        <v>49156</v>
+        <v>49125</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -7280,7 +7303,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
-        <v>49187</v>
+        <v>49156</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -7298,7 +7321,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
-        <v>49217</v>
+        <v>49187</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -7316,7 +7339,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
-        <v>49248</v>
+        <v>49217</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -7334,7 +7357,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
-        <v>49278</v>
+        <v>49248</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -7352,7 +7375,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
-        <v>49309</v>
+        <v>49278</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -7370,7 +7393,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
-        <v>49340</v>
+        <v>49309</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -7388,7 +7411,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
-        <v>49368</v>
+        <v>49340</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -7404,19 +7427,37 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="40">
+        <v>49368</v>
+      </c>
+      <c r="B222" s="20"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="39"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H222" s="39"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{3A9B630C-4BA5-4BFA-B63C-3A1760275BDD}">
@@ -7454,7 +7495,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane ySplit="1728" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="E9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7476,64 +7517,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="57">
         <v>35662</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -7559,18 +7600,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -7903,7 +7944,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7999,6 +8040,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8020,6 +8064,10 @@
       <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
+        <v>150</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
